--- a/team_specific_matrix/SIUE_B.xlsx
+++ b/team_specific_matrix/SIUE_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2027027027027027</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="C2">
-        <v>0.5405405405405406</v>
+        <v>0.543046357615894</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01801801801801802</v>
+        <v>0.01655629139072848</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1486486486486487</v>
+        <v>0.1556291390728477</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09009009009009009</v>
+        <v>0.07947019867549669</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03937007874015748</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03149606299212598</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7480314960629921</v>
+        <v>0.7558139534883721</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1811023622047244</v>
+        <v>0.1918604651162791</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04166666666666666</v>
+        <v>0.03125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5416666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4166666666666667</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08387096774193549</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006451612903225806</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06451612903225806</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2387096774193548</v>
+        <v>0.2100456621004566</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1806451612903226</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="R6">
-        <v>0.05161290322580645</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="S6">
-        <v>0.3741935483870968</v>
+        <v>0.3789954337899543</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07142857142857142</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01298701298701299</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E7">
-        <v>0.006493506493506494</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="F7">
-        <v>0.03896103896103896</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1688311688311688</v>
+        <v>0.1601941747572816</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01298701298701299</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1753246753246753</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="R7">
-        <v>0.07792207792207792</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="S7">
-        <v>0.435064935064935</v>
+        <v>0.4029126213592233</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1265822784810127</v>
+        <v>0.1113636363636364</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01582278481012658</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E8">
-        <v>0.003164556962025316</v>
+        <v>0.002272727272727273</v>
       </c>
       <c r="F8">
-        <v>0.04430379746835443</v>
+        <v>0.04318181818181818</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1170886075949367</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01265822784810127</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1487341772151899</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="R8">
-        <v>0.120253164556962</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="S8">
-        <v>0.4113924050632912</v>
+        <v>0.4181818181818182</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1041666666666667</v>
+        <v>0.109452736318408</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01388888888888889</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0625</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1666666666666667</v>
+        <v>0.154228855721393</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.1741293532338309</v>
       </c>
       <c r="R9">
-        <v>0.0763888888888889</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="S9">
-        <v>0.4097222222222222</v>
+        <v>0.3781094527363184</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1085011185682327</v>
+        <v>0.107229894394801</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01677852348993289</v>
+        <v>0.01543460601137287</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06823266219239374</v>
+        <v>0.06986190089358245</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1140939597315436</v>
+        <v>0.1121039805036556</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0145413870246085</v>
+        <v>0.01299756295694557</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2024608501118568</v>
+        <v>0.2030869212022746</v>
       </c>
       <c r="R10">
-        <v>0.08165548098434004</v>
+        <v>0.08692120227457352</v>
       </c>
       <c r="S10">
-        <v>0.3937360178970917</v>
+        <v>0.3923639317627945</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1508196721311476</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07589285714285714</v>
+        <v>0.07868852459016394</v>
       </c>
       <c r="K11">
-        <v>0.21875</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L11">
-        <v>0.5401785714285714</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02232142857142857</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.782258064516129</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2016129032258064</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01612903225806452</v>
+        <v>0.01764705882352941</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7297297297297297</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2162162162162162</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05405405405405406</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0303030303030303</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1893939393939394</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="I15">
-        <v>0.05303030303030303</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="J15">
-        <v>0.3560606060606061</v>
+        <v>0.3316326530612245</v>
       </c>
       <c r="K15">
-        <v>0.06060606060606061</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0303030303030303</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04545454545454546</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2348484848484849</v>
+        <v>0.2193877551020408</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01515151515151515</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1666666666666667</v>
+        <v>0.1542553191489362</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="J16">
-        <v>0.3863636363636364</v>
+        <v>0.3776595744680851</v>
       </c>
       <c r="K16">
-        <v>0.1136363636363636</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03787878787878788</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="N16">
-        <v>0.007575757575757576</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="O16">
-        <v>0.02272727272727273</v>
+        <v>0.03723404255319149</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1590909090909091</v>
+        <v>0.1542553191489362</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0196078431372549</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.173202614379085</v>
+        <v>0.182033096926714</v>
       </c>
       <c r="I17">
-        <v>0.1013071895424837</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J17">
-        <v>0.3660130718954248</v>
+        <v>0.3853427895981087</v>
       </c>
       <c r="K17">
-        <v>0.09803921568627451</v>
+        <v>0.08983451536643026</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0196078431372549</v>
+        <v>0.01891252955082742</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07516339869281045</v>
+        <v>0.06619385342789598</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1470588235294118</v>
+        <v>0.132387706855792</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01408450704225352</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1549295774647887</v>
+        <v>0.1504854368932039</v>
       </c>
       <c r="I18">
-        <v>0.09859154929577464</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="J18">
-        <v>0.4084507042253521</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="K18">
-        <v>0.1056338028169014</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007042253521126761</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="N18">
-        <v>0.007042253521126761</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="O18">
-        <v>0.07746478873239436</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1267605633802817</v>
+        <v>0.1407766990291262</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01787592008412198</v>
+        <v>0.01857585139318885</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2071503680336488</v>
+        <v>0.2043343653250774</v>
       </c>
       <c r="I19">
-        <v>0.08517350157728706</v>
+        <v>0.08126934984520123</v>
       </c>
       <c r="J19">
-        <v>0.3690851735015773</v>
+        <v>0.3653250773993808</v>
       </c>
       <c r="K19">
-        <v>0.1125131440588854</v>
+        <v>0.1130030959752322</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0241850683491062</v>
+        <v>0.02476780185758514</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06098843322818086</v>
+        <v>0.0673374613003096</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1230283911671924</v>
+        <v>0.1253869969040248</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/SIUE_B.xlsx
+++ b/team_specific_matrix/SIUE_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2052980132450331</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="C2">
-        <v>0.543046357615894</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01655629139072848</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1556291390728477</v>
+        <v>0.1593406593406593</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07947019867549669</v>
+        <v>0.07967032967032966</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02906976744186046</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02325581395348837</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7558139534883721</v>
+        <v>0.751219512195122</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1918604651162791</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03125</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.625</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.34375</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0776255707762557</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0045662100456621</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0730593607305936</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2100456621004566</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1780821917808219</v>
+        <v>0.180672268907563</v>
       </c>
       <c r="R6">
-        <v>0.0776255707762557</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S6">
-        <v>0.3789954337899543</v>
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09223300970873786</v>
+        <v>0.1017699115044248</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009708737864077669</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="E7">
-        <v>0.004854368932038835</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="F7">
-        <v>0.05339805825242718</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1601941747572816</v>
+        <v>0.1460176991150443</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01456310679611651</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1844660194174757</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="R7">
-        <v>0.07766990291262135</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="S7">
-        <v>0.4029126213592233</v>
+        <v>0.4026548672566372</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1113636363636364</v>
+        <v>0.1178861788617886</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01818181818181818</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="E8">
-        <v>0.002272727272727273</v>
+        <v>0.002032520325203252</v>
       </c>
       <c r="F8">
-        <v>0.04318181818181818</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1272727272727273</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01818181818181818</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1454545454545454</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="R8">
-        <v>0.1159090909090909</v>
+        <v>0.1117886178861789</v>
       </c>
       <c r="S8">
-        <v>0.4181818181818182</v>
+        <v>0.4227642276422764</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.109452736318408</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01492537313432836</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06965174129353234</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.154228855721393</v>
+        <v>0.1461187214611872</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009950248756218905</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1741293532338309</v>
+        <v>0.1735159817351598</v>
       </c>
       <c r="R9">
-        <v>0.08955223880597014</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="S9">
-        <v>0.3781094527363184</v>
+        <v>0.3881278538812785</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.107229894394801</v>
+        <v>0.1184593023255814</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01543460601137287</v>
+        <v>0.01598837209302326</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007267441860465116</v>
       </c>
       <c r="F10">
-        <v>0.06986190089358245</v>
+        <v>0.0690406976744186</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1121039805036556</v>
+        <v>0.1075581395348837</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01299756295694557</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2030869212022746</v>
+        <v>0.2020348837209302</v>
       </c>
       <c r="R10">
-        <v>0.08692120227457352</v>
+        <v>0.08502906976744186</v>
       </c>
       <c r="S10">
-        <v>0.3923639317627945</v>
+        <v>0.3895348837209303</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1508196721311476</v>
+        <v>0.150887573964497</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07868852459016394</v>
+        <v>0.07988165680473373</v>
       </c>
       <c r="K11">
-        <v>0.2131147540983606</v>
+        <v>0.2159763313609467</v>
       </c>
       <c r="L11">
-        <v>0.5409836065573771</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01639344262295082</v>
+        <v>0.01479289940828402</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7705882352941177</v>
+        <v>0.7553191489361702</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01176470588235294</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01764705882352941</v>
+        <v>0.01595744680851064</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7021276595744681</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2553191489361702</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0425531914893617</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03061224489795918</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2142857142857143</v>
+        <v>0.2247706422018349</v>
       </c>
       <c r="I15">
-        <v>0.0663265306122449</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="J15">
-        <v>0.3316326530612245</v>
+        <v>0.3256880733944954</v>
       </c>
       <c r="K15">
-        <v>0.07142857142857142</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02040816326530612</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04591836734693878</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2193877551020408</v>
+        <v>0.2155963302752294</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01595744680851064</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1542553191489362</v>
+        <v>0.163716814159292</v>
       </c>
       <c r="I16">
-        <v>0.101063829787234</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="J16">
-        <v>0.3776595744680851</v>
+        <v>0.4070796460176991</v>
       </c>
       <c r="K16">
-        <v>0.1276595744680851</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02659574468085106</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="N16">
-        <v>0.005319148936170213</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="O16">
-        <v>0.03723404255319149</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1542553191489362</v>
+        <v>0.1371681415929203</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01418439716312057</v>
+        <v>0.01495726495726496</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.182033096926714</v>
+        <v>0.1773504273504274</v>
       </c>
       <c r="I17">
-        <v>0.1111111111111111</v>
+        <v>0.1004273504273504</v>
       </c>
       <c r="J17">
-        <v>0.3853427895981087</v>
+        <v>0.3931623931623932</v>
       </c>
       <c r="K17">
-        <v>0.08983451536643026</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01891252955082742</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06619385342789598</v>
+        <v>0.06623931623931624</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.132387706855792</v>
+        <v>0.1431623931623932</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01456310679611651</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1504854368932039</v>
+        <v>0.1511111111111111</v>
       </c>
       <c r="I18">
-        <v>0.09223300970873786</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="J18">
-        <v>0.4271844660194175</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="K18">
-        <v>0.0825242718446602</v>
+        <v>0.08444444444444445</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009708737864077669</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="N18">
-        <v>0.004854368932038835</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="O18">
-        <v>0.07766990291262135</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1407766990291262</v>
+        <v>0.1422222222222222</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01857585139318885</v>
+        <v>0.01644962302947224</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2043343653250774</v>
+        <v>0.2001370801919123</v>
       </c>
       <c r="I19">
-        <v>0.08126934984520123</v>
+        <v>0.07950651130911583</v>
       </c>
       <c r="J19">
-        <v>0.3653250773993808</v>
+        <v>0.3625771076079506</v>
       </c>
       <c r="K19">
-        <v>0.1130030959752322</v>
+        <v>0.111720356408499</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02476780185758514</v>
+        <v>0.02604523646333105</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0673374613003096</v>
+        <v>0.06922549691569568</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1253869969040248</v>
+        <v>0.1343385880740233</v>
       </c>
     </row>
   </sheetData>
